--- a/medicine/Enfance/Pilar_Mateos/Pilar_Mateos.xlsx
+++ b/medicine/Enfance/Pilar_Mateos/Pilar_Mateos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilar Mateos Martín (Valladolid, 1942) est une écrivaine espagnole de littérature d'enfance et de jeunesse.
 Dans ses livres, elle utilise un vocabulaire simple pour parler de personnages isolés, marginaux et tristes et elle mélange la réalité et l'imagination dans des œuvres où la fantaisie et les rêves peuvent créer de nouvelles réalités.
